--- a/config_11.3/fish_3d_yutu_random_2.xlsx
+++ b/config_11.3/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1302,10 +1302,10 @@
         <v>63</v>
       </c>
       <c r="D10" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E10" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>58</v>
@@ -1318,16 +1318,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D11" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>58</v>
@@ -1338,38 +1338,58 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E12" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="11">
+        <v>300</v>
+      </c>
+      <c r="E13" s="11">
+        <v>500</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>700</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>58</v>
       </c>
     </row>

--- a/config_11.3/fish_3d_yutu_random_2.xlsx
+++ b/config_11.3/fish_3d_yutu_random_2.xlsx
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>64,65,66,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运营活动鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +369,14 @@
   </si>
   <si>
     <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1277,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D9" s="11">
         <v>20</v>
@@ -1305,7 +1305,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="11">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>58</v>
@@ -1327,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>58</v>
@@ -1338,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D12" s="11">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="E12" s="11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>58</v>
@@ -1358,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11">
         <v>300</v>
@@ -1370,7 +1370,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
